--- a/mapping/mml_personal_information_mapping.xlsx
+++ b/mapping/mml_personal_information_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
   <si>
     <t>Elements</t>
   </si>
@@ -63,36 +63,18 @@
     <t>#IMPLIED</t>
   </si>
   <si>
-    <t>1.8.</t>
-  </si>
-  <si>
-    <t>1.8.1.</t>
-  </si>
-  <si>
     <t>mmlAd:Address</t>
   </si>
   <si>
-    <t>1.9.</t>
-  </si>
-  <si>
     <t>mmlPi:emailAddresses</t>
   </si>
   <si>
-    <t>1.9.1.</t>
-  </si>
-  <si>
     <t>mmlCm:email</t>
   </si>
   <si>
-    <t>1.10.</t>
-  </si>
-  <si>
     <t>mmlPi:phones</t>
   </si>
   <si>
-    <t>1.10.1.</t>
-  </si>
-  <si>
     <t>mmlPh:Phone</t>
   </si>
   <si>
@@ -446,13 +428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Address type(注)</t>
-    <rPh sb="13" eb="14">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HL7-0190</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -574,6 +549,14 @@
   </si>
   <si>
     <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]</t>
+  </si>
+  <si>
+    <t>8.6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.7.1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -995,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,21 +996,21 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1048,16 +1031,16 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1065,14 +1048,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1089,23 +1072,23 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1113,13 +1096,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1127,13 +1110,13 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1141,13 +1124,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1165,7 +1148,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1177,14 +1160,14 @@
       </c>
       <c r="F11" s="1"/>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -1193,20 +1176,20 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -1219,7 +1202,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -1228,16 +1211,16 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="I14" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1246,16 +1229,16 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -1266,16 +1249,16 @@
       </c>
       <c r="F16" s="1"/>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -1284,16 +1267,16 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -1304,16 +1287,16 @@
       </c>
       <c r="F18" s="1"/>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -1324,10 +1307,10 @@
       </c>
       <c r="F19" s="1"/>
       <c r="I19" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1335,7 +1318,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -1344,13 +1327,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1361,17 +1344,17 @@
       </c>
       <c r="F21" s="1"/>
       <c r="I21" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -1380,20 +1363,20 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -1404,7 +1387,7 @@
       <c r="F23" s="1"/>
       <c r="I23" s="9"/>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1421,16 +1404,16 @@
       </c>
       <c r="F24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -1439,19 +1422,19 @@
         <v>8</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -1464,26 +1447,26 @@
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1"/>
       <c r="I27" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
@@ -1492,13 +1475,13 @@
         <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1506,20 +1489,20 @@
         <v>8.4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -1530,17 +1513,17 @@
       </c>
       <c r="F30" s="1"/>
       <c r="I30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
         <v>112</v>
-      </c>
-      <c r="J30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -1549,20 +1532,20 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" t="s">
         <v>113</v>
-      </c>
-      <c r="J31" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -1587,16 +1570,16 @@
       </c>
       <c r="F33" s="1"/>
       <c r="I33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" t="s">
         <v>114</v>
-      </c>
-      <c r="J33" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
@@ -1605,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" t="s">
         <v>115</v>
-      </c>
-      <c r="J34" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -1630,26 +1613,26 @@
     <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="1"/>
       <c r="I36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" t="s">
         <v>116</v>
-      </c>
-      <c r="J36" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -1658,21 +1641,21 @@
         <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" t="s">
         <v>117</v>
       </c>
-      <c r="J37" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
+      <c r="A38" s="1">
+        <v>8.5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1681,15 +1664,13 @@
       </c>
       <c r="F38" s="1"/>
       <c r="H38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1697,18 +1678,16 @@
         <v>7</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="I39" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="I39" s="10"/>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1717,17 +1696,17 @@
         <v>8</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" t="s">
-        <v>127</v>
+        <v>35</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1736,17 +1715,17 @@
         <v>14</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -1759,7 +1738,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
@@ -1770,16 +1749,16 @@
       </c>
       <c r="F43" s="3"/>
       <c r="I43" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" t="s">
         <v>129</v>
-      </c>
-      <c r="J43" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -1790,16 +1769,16 @@
       </c>
       <c r="F44" s="3"/>
       <c r="I44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
@@ -1810,16 +1789,16 @@
       </c>
       <c r="F45" s="3"/>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J45" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
@@ -1830,16 +1809,16 @@
       </c>
       <c r="F46" s="3"/>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
@@ -1850,16 +1829,16 @@
       </c>
       <c r="F47" s="3"/>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
@@ -1870,16 +1849,16 @@
       </c>
       <c r="F48" s="3"/>
       <c r="I48" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J48" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
@@ -1890,18 +1869,18 @@
       </c>
       <c r="F49" s="3"/>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J49" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>18</v>
+      <c r="A50" s="1">
+        <v>8.6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1910,15 +1889,15 @@
       </c>
       <c r="F50" s="1"/>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
@@ -1929,18 +1908,18 @@
       </c>
       <c r="F51" s="1"/>
       <c r="I51" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J51" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>22</v>
+      <c r="A52" s="1">
+        <v>8.6999999999999993</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1951,10 +1930,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1963,14 +1942,14 @@
       </c>
       <c r="F53" s="1"/>
       <c r="H53" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>6</v>
@@ -1979,19 +1958,19 @@
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
@@ -2002,16 +1981,16 @@
       </c>
       <c r="F55" s="1"/>
       <c r="I55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J55" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
@@ -2022,16 +2001,16 @@
       </c>
       <c r="F56" s="1"/>
       <c r="I56" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -2042,16 +2021,16 @@
       </c>
       <c r="F57" s="1"/>
       <c r="I57" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -2062,16 +2041,16 @@
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J58" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -2082,16 +2061,16 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J59" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -2102,16 +2081,16 @@
       </c>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -2122,10 +2101,10 @@
       </c>
       <c r="F61" s="1"/>
       <c r="I61" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J61" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_personal_information_mapping.xlsx
+++ b/mapping/mml_personal_information_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="23475" windowHeight="9795"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="23475" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="164">
   <si>
     <t>Elements</t>
   </si>
@@ -247,13 +247,6 @@
     <t>openEHR-EHR-CLUSTER.individual_personal-mml.v1</t>
   </si>
   <si>
-    <t>identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0016]</t>
-  </si>
-  <si>
     <t>Name representation</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,6 +550,34 @@
   <si>
     <t>8.7.1</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master id/Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master id/Identifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master id/checkDigit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master id/checkDigitSchema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.6]/items[at0016]</t>
+  </si>
+  <si>
+    <t>/items[at0.6]/items[at0.9]</t>
+  </si>
+  <si>
+    <t>/items[at0.6]/items[at0.10]</t>
+  </si>
+  <si>
+    <t>/items[at0.6]/items[at0.11]</t>
   </si>
 </sst>
 </file>
@@ -978,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,10 +1093,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1091,6 +1112,12 @@
         <v>30</v>
       </c>
       <c r="F6" s="1"/>
+      <c r="I6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1119,6 +1146,12 @@
         <v>31</v>
       </c>
       <c r="F8" s="1"/>
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1133,6 +1166,12 @@
         <v>31</v>
       </c>
       <c r="F9" s="1"/>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -1179,10 +1218,10 @@
         <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -1211,10 +1250,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -1229,10 +1268,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -1249,10 +1288,10 @@
       </c>
       <c r="F16" s="1"/>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -1267,10 +1306,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -1287,10 +1326,10 @@
       </c>
       <c r="F18" s="1"/>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -1307,10 +1346,10 @@
       </c>
       <c r="F19" s="1"/>
       <c r="I19" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1318,7 +1357,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -1327,13 +1366,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1344,17 +1383,17 @@
       </c>
       <c r="F21" s="1"/>
       <c r="I21" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -1366,17 +1405,17 @@
         <v>35</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -1387,7 +1426,7 @@
       <c r="F23" s="1"/>
       <c r="I23" s="9"/>
       <c r="J23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1404,16 +1443,16 @@
       </c>
       <c r="F24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -1425,16 +1464,16 @@
         <v>35</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -1447,26 +1486,26 @@
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1"/>
       <c r="I27" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
@@ -1475,13 +1514,13 @@
         <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1489,20 +1528,20 @@
         <v>8.4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -1513,17 +1552,17 @@
       </c>
       <c r="F30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -1535,17 +1574,17 @@
         <v>35</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -1570,16 +1609,16 @@
       </c>
       <c r="F33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
@@ -1591,16 +1630,16 @@
         <v>35</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -1613,26 +1652,26 @@
     <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="1"/>
       <c r="I36" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -1641,13 +1680,13 @@
         <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -1655,7 +1694,7 @@
         <v>8.5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1664,7 +1703,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="H38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -1680,7 +1719,7 @@
       <c r="F39" s="1"/>
       <c r="I39" s="10"/>
       <c r="J39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -1699,7 +1738,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -1718,7 +1757,7 @@
         <v>45</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -1749,10 +1788,10 @@
       </c>
       <c r="F43" s="3"/>
       <c r="I43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -1769,10 +1808,10 @@
       </c>
       <c r="F44" s="3"/>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -1789,10 +1828,10 @@
       </c>
       <c r="F45" s="3"/>
       <c r="I45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -1809,10 +1848,10 @@
       </c>
       <c r="F46" s="3"/>
       <c r="I46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -1829,10 +1868,10 @@
       </c>
       <c r="F47" s="3"/>
       <c r="I47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -1849,10 +1888,10 @@
       </c>
       <c r="F48" s="3"/>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -1869,10 +1908,10 @@
       </c>
       <c r="F49" s="3"/>
       <c r="I49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -1889,12 +1928,12 @@
       </c>
       <c r="F50" s="1"/>
       <c r="H50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>17</v>
@@ -1908,10 +1947,10 @@
       </c>
       <c r="F51" s="1"/>
       <c r="I51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -1930,7 +1969,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>19</v>
@@ -1942,7 +1981,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="H53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -1961,10 +2000,10 @@
         <v>55</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -1981,10 +2020,10 @@
       </c>
       <c r="F55" s="1"/>
       <c r="I55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -2001,10 +2040,10 @@
       </c>
       <c r="F56" s="1"/>
       <c r="I56" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -2021,10 +2060,10 @@
       </c>
       <c r="F57" s="1"/>
       <c r="I57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -2041,10 +2080,10 @@
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -2061,10 +2100,10 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -2081,10 +2120,10 @@
       </c>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2101,10 +2140,10 @@
       </c>
       <c r="F61" s="1"/>
       <c r="I61" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_personal_information_mapping.xlsx
+++ b/mapping/mml_personal_information_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
   <si>
     <t>Elements</t>
   </si>
@@ -421,10 +421,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HL7-0190</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Unstructured address</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,6 +574,14 @@
   </si>
   <si>
     <t>/items[at0.6]/items[at0.11]</t>
+  </si>
+  <si>
+    <t>Address type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊ValueはHL7-0190きめうち</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -999,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,10 +1097,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1113,10 +1117,10 @@
       </c>
       <c r="F6" s="1"/>
       <c r="I6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1147,10 +1151,10 @@
       </c>
       <c r="F8" s="1"/>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -1167,10 +1171,10 @@
       </c>
       <c r="F9" s="1"/>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -1595,7 +1599,7 @@
       <c r="F32" s="1"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>5</v>
@@ -1615,7 +1619,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>89</v>
@@ -1636,7 +1640,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>90</v>
@@ -1649,7 +1653,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>91</v>
@@ -1668,7 +1672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>93</v>
@@ -1689,7 +1693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>8.5</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>15</v>
@@ -1719,10 +1723,10 @@
       <c r="F39" s="1"/>
       <c r="I39" s="10"/>
       <c r="J39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
@@ -1741,7 +1745,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
@@ -1757,10 +1761,10 @@
         <v>45</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
@@ -1773,8 +1777,12 @@
         <v>14</v>
       </c>
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I42" s="10"/>
+      <c r="K42" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
         <v>47</v>
@@ -1788,13 +1796,13 @@
       </c>
       <c r="F43" s="3"/>
       <c r="I43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="3" t="s">
         <v>48</v>
@@ -1808,13 +1816,13 @@
       </c>
       <c r="F44" s="3"/>
       <c r="I44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
         <v>49</v>
@@ -1828,13 +1836,13 @@
       </c>
       <c r="F45" s="3"/>
       <c r="I45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
         <v>50</v>
@@ -1848,13 +1856,13 @@
       </c>
       <c r="F46" s="3"/>
       <c r="I46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
         <v>51</v>
@@ -1868,13 +1876,13 @@
       </c>
       <c r="F47" s="3"/>
       <c r="I47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
         <v>52</v>
@@ -1888,10 +1896,10 @@
       </c>
       <c r="F48" s="3"/>
       <c r="I48" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" t="s">
         <v>132</v>
-      </c>
-      <c r="J48" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -1908,10 +1916,10 @@
       </c>
       <c r="F49" s="3"/>
       <c r="I49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -1928,12 +1936,12 @@
       </c>
       <c r="F50" s="1"/>
       <c r="H50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>17</v>
@@ -1947,10 +1955,10 @@
       </c>
       <c r="F51" s="1"/>
       <c r="I51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -1969,7 +1977,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>19</v>
@@ -1981,7 +1989,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="H53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2000,10 +2008,10 @@
         <v>55</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -2020,10 +2028,10 @@
       </c>
       <c r="F55" s="1"/>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -2040,10 +2048,10 @@
       </c>
       <c r="F56" s="1"/>
       <c r="I56" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -2060,10 +2068,10 @@
       </c>
       <c r="F57" s="1"/>
       <c r="I57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -2080,10 +2088,10 @@
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -2100,10 +2108,10 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -2120,10 +2128,10 @@
       </c>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2140,10 +2148,10 @@
       </c>
       <c r="F61" s="1"/>
       <c r="I61" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_personal_information_mapping.xlsx
+++ b/mapping/mml_personal_information_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="166">
   <si>
     <t>Elements</t>
   </si>
@@ -54,9 +54,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -581,6 +578,14 @@
   </si>
   <si>
     <t>＊ValueはHL7-0190きめうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1003,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1021,21 +1026,21 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1056,16 +1061,16 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1073,14 +1078,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1097,43 +1102,43 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1141,40 +1146,40 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1"/>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1"/>
       <c r="I9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -1191,7 +1196,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1203,14 +1208,14 @@
       </c>
       <c r="F11" s="1"/>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -1219,33 +1224,33 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -1254,16 +1259,16 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="I14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1272,36 +1277,36 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1"/>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -1310,50 +1315,50 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1"/>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1"/>
       <c r="I19" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1361,22 +1366,22 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1387,17 +1392,17 @@
       </c>
       <c r="F21" s="1"/>
       <c r="I21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -1406,31 +1411,31 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="9"/>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1443,20 +1448,20 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -1465,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -1490,41 +1495,41 @@
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1"/>
       <c r="I27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1532,20 +1537,22 @@
         <v>8.4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -1556,17 +1563,17 @@
       </c>
       <c r="F30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -1575,26 +1582,26 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1"/>
       <c r="I32" s="9"/>
@@ -1609,20 +1616,20 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
@@ -1631,19 +1638,19 @@
         <v>8</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -1656,41 +1663,41 @@
     <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1"/>
       <c r="I36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="C37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -1698,22 +1705,22 @@
         <v>8.5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1"/>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1723,14 +1730,14 @@
       <c r="F39" s="1"/>
       <c r="I39" s="10"/>
       <c r="J39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1739,187 +1746,187 @@
         <v>8</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I41" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="3"/>
       <c r="I42" s="10"/>
       <c r="K42" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="3"/>
       <c r="I43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="3"/>
       <c r="I44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="3"/>
       <c r="I45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="3"/>
       <c r="I46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="3"/>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="3"/>
       <c r="I48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J48" t="s">
         <v>131</v>
-      </c>
-      <c r="J48" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="3"/>
       <c r="I49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -1927,24 +1934,24 @@
         <v>8.6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1"/>
       <c r="H50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
@@ -1955,10 +1962,10 @@
       </c>
       <c r="F51" s="1"/>
       <c r="I51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -1966,21 +1973,21 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1989,169 +1996,169 @@
       </c>
       <c r="F53" s="1"/>
       <c r="H53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1"/>
       <c r="I55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1"/>
       <c r="I56" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1"/>
       <c r="I57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1"/>
       <c r="I61" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_personal_information_mapping.xlsx
+++ b/mapping/mml_personal_information_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
   <si>
     <t>Elements</t>
   </si>
@@ -272,27 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0.23]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0003]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0004 and name/value='Middle name']</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0017]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0.27]</t>
-  </si>
-  <si>
     <t>mmlFc:Facility</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,24 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.15]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0011]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.13]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.14]</t>
-  </si>
-  <si>
     <t>mmlPsi:addresses</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,10 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Unstructured address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>country code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -442,37 +399,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.21]</t>
-  </si>
-  <si>
     <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]</t>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]</t>
-  </si>
-  <si>
     <t>zip code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']</t>
-  </si>
-  <si>
     <t>email address</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -513,30 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]</t>
-  </si>
-  <si>
     <t>8.6.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -561,31 +470,273 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0.6]/items[at0016]</t>
-  </si>
-  <si>
-    <t>/items[at0.6]/items[at0.9]</t>
-  </si>
-  <si>
-    <t>/items[at0.6]/items[at0.10]</t>
-  </si>
-  <si>
-    <t>/items[at0.6]/items[at0.11]</t>
-  </si>
-  <si>
     <t>Address type</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＊ValueはHL7-0190きめうち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.6]/items[at0016.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.6]/items[at0.9]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.6]/items[at0.10]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.6]/items[at0.11]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0.23]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0.23]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0017]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0.27]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*)値は"="で固定</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/target/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1006,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1020,22 +1171,23 @@
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1043,7 +1195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1066,14 +1218,15 @@
       <c r="I3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -1087,8 +1240,11 @@
       <c r="H4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>8.1</v>
       </c>
@@ -1102,13 +1258,16 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -1122,13 +1281,16 @@
       </c>
       <c r="F6" s="1"/>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="K6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -1142,7 +1304,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -1156,13 +1318,16 @@
       </c>
       <c r="F8" s="1"/>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="K8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -1176,13 +1341,16 @@
       </c>
       <c r="F9" s="1"/>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="K9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -1194,7 +1362,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1211,7 +1379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -1229,11 +1397,14 @@
       <c r="I12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1246,8 +1417,11 @@
         <v>13</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>36</v>
@@ -1261,11 +1435,14 @@
       <c r="I14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -1280,10 +1457,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>38</v>
@@ -1300,10 +1480,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -1318,10 +1501,13 @@
         <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -1338,10 +1524,13 @@
         <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -1357,31 +1546,34 @@
       <c r="I19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1392,17 +1584,20 @@
       </c>
       <c r="F21" s="1"/>
       <c r="I21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -1416,15 +1611,18 @@
       <c r="I22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -1434,11 +1632,12 @@
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="9"/>
-      <c r="J23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="9"/>
+      <c r="K23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -1452,16 +1651,19 @@
       </c>
       <c r="F24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -1473,16 +1675,19 @@
         <v>34</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -1491,166 +1696,183 @@
         <v>8</v>
       </c>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="J26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="I27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="1"/>
+      <c r="I28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="H29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="I30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F31" s="1"/>
+      <c r="I31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="1"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="I33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F34" s="1"/>
+      <c r="I34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -1658,181 +1880,199 @@
       <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="F35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="K36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="I37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="I36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F38" s="1"/>
+      <c r="I38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+      <c r="F39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
         <v>8.5</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="H38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+      <c r="F40" s="1"/>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="I39" s="10"/>
-      <c r="J39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F41" s="1"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="I42" s="10"/>
-      <c r="K42" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="I43" t="s">
-        <v>118</v>
-      </c>
-      <c r="J43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F44" s="3"/>
-      <c r="I44" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" t="s">
+        <v>175</v>
+      </c>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
@@ -1842,17 +2082,14 @@
         <v>12</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="I45" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
@@ -1863,16 +2100,19 @@
       </c>
       <c r="F46" s="3"/>
       <c r="I46" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
@@ -1883,16 +2123,19 @@
       </c>
       <c r="F47" s="3"/>
       <c r="I47" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
@@ -1903,16 +2146,19 @@
       </c>
       <c r="F48" s="3"/>
       <c r="I48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
@@ -1923,57 +2169,67 @@
       </c>
       <c r="F49" s="3"/>
       <c r="I49" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+        <v>109</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="I50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="I51" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
         <v>8.6</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="H50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="I51" t="s">
-        <v>134</v>
-      </c>
-      <c r="J51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1981,90 +2237,95 @@
         <v>12</v>
       </c>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="H53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
+      <c r="I53" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="H55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="I55" t="s">
-        <v>137</v>
-      </c>
-      <c r="J55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="I56" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -2075,16 +2336,19 @@
       </c>
       <c r="F57" s="1"/>
       <c r="I57" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="J57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="K57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -2094,17 +2358,20 @@
         <v>12</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="I58" t="s">
-        <v>140</v>
-      </c>
-      <c r="J58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I58" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -2115,16 +2382,19 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="J59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="K59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -2135,16 +2405,19 @@
       </c>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="J60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="K60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -2154,11 +2427,60 @@
         <v>12</v>
       </c>
       <c r="F61" s="1"/>
-      <c r="I61" s="6" t="s">
-        <v>143</v>
+      <c r="I61" t="s">
+        <v>119</v>
       </c>
       <c r="J61" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="K61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="I62" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62" t="s">
+        <v>145</v>
+      </c>
+      <c r="K62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="I63" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K63" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_personal_information_mapping.xlsx
+++ b/mapping/mml_personal_information_mapping.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skoba\OneDrive\ドキュメント\GitHub\mml\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="2624E56C538C6C43AD28812CE523E183A667C297" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="23475" windowHeight="9780"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="23475" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -743,7 +749,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -866,12 +872,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -913,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,9 +955,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -981,6 +1007,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1156,27 +1199,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="9" max="9" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1187,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1195,7 +1238,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1226,7 +1269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -1244,7 +1287,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.1</v>
       </c>
@@ -1267,7 +1310,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -1290,7 +1333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -1304,7 +1347,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -1327,7 +1370,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -1350,7 +1393,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -1362,7 +1405,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1379,7 +1422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -1404,7 +1447,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1421,7 +1464,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>36</v>
@@ -1442,7 +1485,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -1463,7 +1506,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>38</v>
@@ -1486,7 +1529,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -1507,7 +1550,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -1530,7 +1573,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -1553,7 +1596,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -1570,7 +1613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>78</v>
@@ -1593,7 +1636,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -1618,7 +1661,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -1637,7 +1680,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -1660,7 +1703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>81</v>
@@ -1684,7 +1727,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>82</v>
@@ -1703,7 +1746,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1716,7 +1759,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>83</v>
@@ -1738,7 +1781,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -1762,7 +1805,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8.4</v>
       </c>
@@ -1779,7 +1822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>93</v>
@@ -1802,7 +1845,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -1827,7 +1870,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -1846,7 +1889,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>5</v>
@@ -1869,7 +1912,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>81</v>
@@ -1893,7 +1936,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>82</v>
@@ -1909,7 +1952,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1922,7 +1965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>83</v>
@@ -1944,7 +1987,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>85</v>
@@ -1968,7 +2011,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>8.5</v>
       </c>
@@ -1985,7 +2028,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>14</v>
@@ -1999,7 +2042,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
@@ -2024,7 +2067,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
@@ -2049,7 +2092,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
@@ -2069,7 +2112,7 @@
       </c>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
         <v>46</v>
@@ -2086,7 +2129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
         <v>47</v>
@@ -2109,7 +2152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
         <v>48</v>
@@ -2132,7 +2175,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
         <v>49</v>
@@ -2155,7 +2198,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
         <v>50</v>
@@ -2178,7 +2221,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
         <v>51</v>
@@ -2201,7 +2244,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>52</v>
@@ -2224,7 +2267,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>8.6</v>
       </c>
@@ -2241,7 +2284,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>122</v>
       </c>
@@ -2266,7 +2309,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -2280,7 +2323,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
@@ -2297,7 +2340,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
@@ -2322,7 +2365,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>55</v>
@@ -2345,7 +2388,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>56</v>
@@ -2368,7 +2411,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>57</v>
@@ -2391,7 +2434,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>58</v>
@@ -2414,7 +2457,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>59</v>
@@ -2437,7 +2480,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>60</v>
@@ -2460,7 +2503,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
@@ -2491,12 +2534,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2504,12 +2547,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
